--- a/Libro de códigos.xlsx
+++ b/Libro de códigos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\CIIR\01 FONDEF 2021 Ejecución\procesamiento_preati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0140D585-42F6-4D3D-BB2F-E21D7417F3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DBE8B9-4198-4629-B15D-D79ED29DE65D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2808" yWindow="2100" windowWidth="13824" windowHeight="7176" xr2:uid="{E88F009D-1D6B-46B4-9748-51F6DF30A26B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E88F009D-1D6B-46B4-9748-51F6DF30A26B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
   <si>
     <t xml:space="preserve"> [1] "1. Indique su género."                                                                                                                                                                                                            </t>
   </si>
@@ -291,15 +290,6 @@
   </si>
   <si>
     <t xml:space="preserve">[85] "66. ¿Cuenta con implementos específicos para primeros auxilios (Camillas, botiquín, otros)?"                                                                                                                                      </t>
-  </si>
-  <si>
-    <t>&gt; ls &lt;- variable.names(bbdd)</t>
-  </si>
-  <si>
-    <t>&gt; ls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[85] "66. ¿Cuenta con implementos específicos para primeros auxilios (Camillas, botiquín, otros)?"    </t>
   </si>
   <si>
     <t xml:space="preserve"> [1] "genero"                                </t>
@@ -561,7 +551,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -572,12 +562,6 @@
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
-      <name val="Lucida Console"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF0000FF"/>
       <name val="Lucida Console"/>
       <family val="3"/>
     </font>
@@ -608,12 +592,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -953,10 +934,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED1E90AB-2B74-4560-9B92-7D68178CA93A}">
-  <dimension ref="A1:B172"/>
+  <dimension ref="A1:B85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -969,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -977,7 +958,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -985,7 +966,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -993,7 +974,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1001,7 +982,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1009,7 +990,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1017,7 +998,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1025,7 +1006,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1033,7 +1014,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1041,7 +1022,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1049,7 +1030,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -1057,7 +1038,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -1065,7 +1046,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -1073,7 +1054,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -1081,7 +1062,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -1089,7 +1070,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -1097,7 +1078,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -1105,7 +1086,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -1113,7 +1094,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -1121,7 +1102,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -1129,7 +1110,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -1137,7 +1118,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -1145,7 +1126,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -1153,7 +1134,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -1161,7 +1142,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -1169,7 +1150,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -1177,7 +1158,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -1185,7 +1166,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -1193,7 +1174,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -1201,7 +1182,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -1209,7 +1190,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -1217,7 +1198,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -1225,7 +1206,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -1233,7 +1214,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -1241,7 +1222,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -1249,7 +1230,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -1257,7 +1238,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -1265,7 +1246,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -1273,7 +1254,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -1281,7 +1262,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -1289,7 +1270,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -1297,7 +1278,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -1305,7 +1286,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -1313,7 +1294,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -1321,7 +1302,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -1329,7 +1310,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -1337,7 +1318,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -1345,7 +1326,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -1353,7 +1334,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -1361,7 +1342,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -1369,7 +1350,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -1377,7 +1358,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -1385,7 +1366,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -1393,7 +1374,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -1401,7 +1382,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -1409,7 +1390,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -1417,7 +1398,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -1425,7 +1406,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -1433,7 +1414,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -1441,7 +1422,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -1449,7 +1430,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -1457,7 +1438,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -1465,7 +1446,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -1473,7 +1454,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -1481,7 +1462,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -1489,7 +1470,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -1497,7 +1478,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -1505,7 +1486,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -1513,7 +1494,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -1521,7 +1502,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -1529,7 +1510,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -1537,7 +1518,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -1545,7 +1526,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -1553,7 +1534,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -1561,7 +1542,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -1569,7 +1550,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -1577,7 +1558,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -1585,7 +1566,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -1593,7 +1574,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -1601,7 +1582,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -1609,7 +1590,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -1617,7 +1598,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -1625,7 +1606,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -1633,450 +1614,15 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B85" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A112" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A122" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A123" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A127" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A128" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A129" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A130" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A131" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A132" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A133" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A134" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A135" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A136" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A137" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A138" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A139" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A140" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A141" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A142" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A143" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A144" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A145" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A146" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A147" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A148" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A149" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A150" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A151" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A152" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A153" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A154" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A155" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A156" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A157" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A158" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A159" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A160" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A161" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A162" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A163" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A164" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A165" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A166" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A167" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A168" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A169" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A170" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A171" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A172" s="3" t="s">
-        <v>87</v>
+      <c r="B85" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
